--- a/StreamRes/ExcelTable/Excel/cn/PangooEvents.xlsx
+++ b/StreamRes/ExcelTable/Excel/cn/PangooEvents.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Namesapce</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>条件触发事件用来出发外部定义事件</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -62,171 +71,149 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -524,159 +511,299 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+  <cellXfs count="51">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="11" applyFill="1" borderId="5" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="11" applyFill="1" borderId="1" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="12" applyFill="1" borderId="6" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -739,7 +866,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -784,9 +911,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -819,9 +946,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -996,78 +1123,87 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.8833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.4833333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="22.6666666666667" customWidth="1" style="50"/>
+    <col min="2" max="2" width="26.5555555555556" customWidth="1" style="50"/>
+    <col min="3" max="3" width="11.2222222222222" customWidth="1" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="50" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/StreamRes/ExcelTable/Excel/cn/PangooEvents.xlsx
+++ b/StreamRes/ExcelTable/Excel/cn/PangooEvents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Namesapce</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1126,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -1202,6 +1205,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
